--- a/medicine/Maladie à coronavirus 2019/Dylan_Howard/Dylan_Howard.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Dylan_Howard/Dylan_Howard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dylan Howard est un journaliste et essayiste américain.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En août 2019, Howard a signé un contrat pour publier ces livres sur des crimes réels chez Skyhorse et Start Publishing[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 2019, Howard a signé un contrat pour publier ces livres sur des crimes réels chez Skyhorse et Start Publishing.
 En 2020, il est l'auteur d'un livre consacré à la pandémie de Covid-19 aux États-Unis.
 </t>
         </is>
@@ -543,17 +557,19 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>en anglais
-Epstein: Dead Men Tell No Tales (December 3, 2019)[2]
-Aaron Hernandez’s Killing Fields (November 5, 2019)[3]
-Diana: Case Solved (September 17, 2019)[4]
-The Last Charles Manson Tapes: Evil Lives Beyond the Grave (November 26, 2019)[5]
-Billion Dollar Hollywood Heist (March 24, 2020)[6]
-Royals at War (June 30, 2020)[7]
-BAD: An Unprecedented Investigation into the Michael Jackson Cover-Up (July 7, 2020)[8]
-COVID-19: The Greatest Cover-Up in History—From Wuhan to the White House (October 5, 2020)[9]
+Epstein: Dead Men Tell No Tales (December 3, 2019)
+Aaron Hernandez’s Killing Fields (November 5, 2019)
+Diana: Case Solved (September 17, 2019)
+The Last Charles Manson Tapes: Evil Lives Beyond the Grave (November 26, 2019)
+Billion Dollar Hollywood Heist (March 24, 2020)
+Royals at War (June 30, 2020)
+BAD: An Unprecedented Investigation into the Michael Jackson Cover-Up (July 7, 2020)
+COVID-19: The Greatest Cover-Up in History—From Wuhan to the White House (October 5, 2020)
 en français
 L'affaire Epstein, Le jardin des livres, 2021.</t>
         </is>
